--- a/900_df.xlsx
+++ b/900_df.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CG_CLG_LCS_-_Saturday,_July_27</t>
+          <t>C9_TSM_LCS_2020_Spring_-_Saturday,_February_15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>-0.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>-581</v>
+        <v>2412</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05017999857438593</v>
+        <v>0.01526915740465118</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02351815678915839</v>
+        <v>-0.01773876024599155</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04619813026341152</v>
+        <v>-0.007330293889258155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -475,44 +475,44 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CG_TSM_LCS_-_Saturday,_June_15</t>
+          <t>CG_CLG_LCS_-_Saturday,_July_27</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.6</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>-34</v>
+        <v>-11</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>-2554</v>
+        <v>-581</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.03209715293385323</v>
+        <v>-0.05017999857438593</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005652636234405886</v>
+        <v>-0.02351815678915839</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01812340076754237</v>
+        <v>-0.04619813026341152</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
@@ -533,32 +533,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CLG_IMT_LCS_2020_Spring_-_Monday,_February_10</t>
+          <t>CG_TSM_LCS_-_Saturday,_June_15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-13.6</v>
+        <v>6.6</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>-34</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>494</v>
+        <v>-2554</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06793574452407036</v>
+        <v>-0.03209715293385323</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0003758108782835057</v>
+        <v>0.005652636234405886</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07806890987875412</v>
+        <v>-0.01812340076754237</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -579,32 +579,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FOX_CG_LCS_-_Saturday,_June_22</t>
+          <t>CLG_IMT_LCS_2020_Spring_-_Monday,_February_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.2</v>
+        <v>-13.6</v>
       </c>
       <c r="C5" t="n">
-        <v>-36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
         <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-3707</v>
+        <v>494</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.004094057713292854</v>
+        <v>0.06793574452407036</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1001261233362733</v>
+        <v>-0.0003758108782835057</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1311814319548717</v>
+        <v>-0.07806890987875412</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
@@ -625,32 +625,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OPT_GGS_LCS_-_Sunday,_August_4</t>
+          <t>TSM_FLY_LCS_2020_Spring_-_Sunday,_February_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.1</v>
+        <v>17.6</v>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>3543</v>
+        <v>4803</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005132378545417315</v>
+        <v>-0.03632723313502351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008394852895802621</v>
+        <v>-0.02626230585187748</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006384809217245491</v>
+        <v>0.07118438006413533</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -659,44 +659,44 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>-1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TL_TSM_LCS_2020_Spring_-_Monday,_January_27</t>
+          <t>FOX_CG_LCS_-_Saturday,_June_22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.4</v>
+        <v>-2.2</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>-36</v>
       </c>
       <c r="D7" t="n">
         <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="n">
-        <v>-843</v>
+        <v>-3707</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08874528382498087</v>
+        <v>-0.004094057713292854</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01343030780305955</v>
+        <v>-0.1001261233362733</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02899898699966658</v>
+        <v>-0.1311814319548717</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -708,41 +708,41 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TSM_OPT_LCS_-_Saturday,_June_22</t>
+          <t>OPT_GGS_LCS_-_Sunday,_August_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.7</v>
+        <v>7.1</v>
       </c>
       <c r="C8" t="n">
-        <v>-30</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>-702</v>
+        <v>3543</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1185129439145875</v>
+        <v>0.005132378545417315</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01097459530563966</v>
+        <v>0.008394852895802621</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.002683276031557935</v>
+        <v>0.006384809217245491</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -754,41 +754,41 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TL_OPT_LCS_-_Saturday,_July_27</t>
+          <t>TL_TSM_LCS_2020_Spring_-_Monday,_January_27</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.1</v>
+        <v>-13.4</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="n">
-        <v>-924</v>
+        <v>-843</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08293759133123241</v>
+        <v>0.08874528382498087</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.06221747203162527</v>
+        <v>0.01343030780305955</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.00552699746805857</v>
+        <v>0.02899898699966658</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -809,32 +809,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TSM_IMT_LCS_2020_Spring_-_Sunday,_January_26</t>
+          <t>TSM_OPT_LCS_-_Saturday,_June_22</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.300000000000001</v>
+        <v>-19.7</v>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>-30</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2868</v>
+        <v>-702</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1295211653340511</v>
+        <v>0.1185129439145875</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00291363286114163</v>
+        <v>0.01097459530563966</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08313891206037705</v>
+        <v>-0.002683276031557935</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -855,32 +855,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IMT_GG_LCS_2020_Spring_-_Sunday,_February_2</t>
+          <t>TL_OPT_LCS_-_Saturday,_July_27</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>14.1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F11" t="n">
-        <v>-171</v>
+        <v>-924</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04772252042536862</v>
+        <v>-0.08293759133123241</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01145958917189421</v>
+        <v>-0.06221747203162527</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03056340387693829</v>
+        <v>-0.00552699746805857</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -901,32 +901,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OPT_TL_LCS_-_Sunday,_June_16</t>
+          <t>TSM_IMT_LCS_2020_Spring_-_Sunday,_January_26</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>-2296</v>
+        <v>2868</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02646234523396113</v>
+        <v>0.1295211653340511</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.06937744018560932</v>
+        <v>0.00291363286114163</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08478024178821791</v>
+        <v>0.08313891206037705</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>-1</v>
@@ -947,32 +947,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DIG_EG_LCS_2020_Spring_-_Sunday,_January_26</t>
+          <t>IMT_GG_LCS_2020_Spring_-_Sunday,_February_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>414</v>
+        <v>-171</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006168905006597725</v>
+        <v>-0.04772252042536862</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03389499059764468</v>
+        <v>-0.01145958917189421</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1049598605489374</v>
+        <v>0.03056340387693829</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
@@ -993,32 +993,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FLY_EG_LCS_2020_Spring_-_Sunday,_February_9</t>
+          <t>OPT_TL_LCS_-_Sunday,_June_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-27.5</v>
+        <v>-7.4</v>
       </c>
       <c r="C14" t="n">
+        <v>21</v>
+      </c>
+      <c r="D14" t="n">
         <v>-2</v>
       </c>
-      <c r="D14" t="n">
-        <v>-1</v>
-      </c>
       <c r="E14" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="F14" t="n">
-        <v>-1841</v>
+        <v>-2296</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005402544134981646</v>
+        <v>-0.02646234523396113</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.007562469983219716</v>
+        <v>-0.06937744018560932</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06130826902252634</v>
+        <v>-0.08478024178821791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>-1</v>
       </c>
       <c r="M14" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
@@ -1039,32 +1039,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C9_IMT_LCS_2020_Spring_-_Saturday,_February_1</t>
+          <t>DIG_EG_LCS_2020_Spring_-_Sunday,_January_26</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>-5</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>5018</v>
+        <v>414</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05370729112771166</v>
+        <v>0.0006168905006597725</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.02090665431613004</v>
+        <v>0.03389499059764468</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0155278158492817</v>
+        <v>0.1049598605489374</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1085,32 +1085,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TL_CLG_LCS_-_Saturday,_July_13</t>
+          <t>FLY_EG_LCS_2020_Spring_-_Sunday,_February_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.8</v>
+        <v>-27.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F16" t="n">
-        <v>2417</v>
+        <v>-1841</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1178724980092519</v>
+        <v>0.005402544134981646</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00176623007354014</v>
+        <v>-0.007562469983219716</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05469890454664436</v>
+        <v>-0.06130826902252634</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1119,44 +1119,44 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GG_C9_LCS_2020_Spring_-_Sunday,_January_26</t>
+          <t>C9_IMT_LCS_2020_Spring_-_Saturday,_February_1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="C17" t="n">
-        <v>-36</v>
+        <v>60</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>137</v>
+        <v>5018</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.08691055565323319</v>
+        <v>0.05370729112771166</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01667123096287303</v>
+        <v>-0.02090665431613004</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.05203318493863401</v>
+        <v>-0.0155278158492817</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1168,41 +1168,41 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C9_TL_LCS_-_Sunday,_July_28</t>
+          <t>TL_CLG_LCS_-_Saturday,_July_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.2</v>
+        <v>6.8</v>
       </c>
       <c r="C18" t="n">
-        <v>-18</v>
+        <v>-8</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>1186</v>
+        <v>2417</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01941411077440697</v>
+        <v>0.1178724980092519</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001603477456779148</v>
+        <v>0.00176623007354014</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.005572607367121341</v>
+        <v>0.05469890454664436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -1223,32 +1223,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EG_CLG_LCS_2020_Spring_-_Saturday,_February_8</t>
+          <t>GG_C9_LCS_2020_Spring_-_Sunday,_January_26</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.2</v>
+        <v>0.8</v>
       </c>
       <c r="C19" t="n">
-        <v>-4</v>
+        <v>-36</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.06793669427921162</v>
+        <v>-0.08691055565323319</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.00764249171575121</v>
+        <v>0.01667123096287303</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005988572513374646</v>
+        <v>-0.05203318493863401</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N19" t="n">
         <v>2</v>
@@ -1269,32 +1269,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FLY_DIG_LCS_2020_Spring_-_Monday,_February_3</t>
+          <t>C9_TL_LCS_-_Sunday,_July_28</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.3</v>
+        <v>11.2</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>-18</v>
       </c>
       <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
-        <v>14</v>
-      </c>
       <c r="F20" t="n">
-        <v>1884</v>
+        <v>1186</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05145555899912918</v>
+        <v>0.01941411077440697</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.00746153978244754</v>
+        <v>0.001603477456779148</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.03642977350938176</v>
+        <v>-0.005572607367121341</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1315,32 +1315,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FLY_TL_LCS_-_Sunday,_July_14</t>
+          <t>EG_CLG_LCS_2020_Spring_-_Saturday,_February_8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-7.8</v>
+        <v>18.2</v>
       </c>
       <c r="C21" t="n">
-        <v>-27</v>
+        <v>-4</v>
       </c>
       <c r="D21" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>-3789</v>
+        <v>340</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.05819076356845787</v>
+        <v>-0.06793669427921162</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02841756343330447</v>
+        <v>-0.00764249171575121</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.05154756767509666</v>
+        <v>0.005988572513374646</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>2</v>
@@ -1361,32 +1361,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GGS_FOX_LCS_-_Saturday,_June_1</t>
+          <t>FLY_DIG_LCS_2020_Spring_-_Monday,_February_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.6</v>
+        <v>18.3</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F22" t="n">
-        <v>1695</v>
+        <v>1884</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02090051002690152</v>
+        <v>0.05145555899912918</v>
       </c>
       <c r="H22" t="n">
-        <v>0.009597296291263296</v>
+        <v>-0.00746153978244754</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.03479013262649158</v>
+        <v>-0.03642977350938176</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -1407,32 +1407,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OPT_100_LCS_-_Saturday,_July_13</t>
+          <t>FLY_TL_LCS_-_Sunday,_July_14</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.4</v>
+        <v>-7.8</v>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>-27</v>
       </c>
       <c r="D23" t="n">
         <v>-2</v>
       </c>
       <c r="E23" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F23" t="n">
-        <v>1013</v>
+        <v>-3789</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.08898960125613203</v>
+        <v>-0.05819076356845787</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.025067393667281</v>
+        <v>0.02841756343330447</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04688821132163984</v>
+        <v>-0.05154756767509666</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
@@ -1453,32 +1453,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FOX_FLY_LCS_-_Sunday,_August_4</t>
+          <t>GGS_FOX_LCS_-_Saturday,_June_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-24.3</v>
+        <v>3.6</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1444</v>
+        <v>1695</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1151298523428588</v>
+        <v>0.02090051002690152</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01026459688080161</v>
+        <v>0.009597296291263296</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1162525799339603</v>
+        <v>-0.03479013262649158</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -1499,32 +1499,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CLG_100_LCS_-_Saturday,_June_1</t>
+          <t>OPT_100_LCS_-_Saturday,_July_13</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23.3</v>
+        <v>6.4</v>
       </c>
       <c r="C25" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="F25" t="n">
-        <v>3499</v>
+        <v>1013</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00110905826398866</v>
+        <v>-0.08898960125613203</v>
       </c>
       <c r="H25" t="n">
-        <v>0.008731299420079289</v>
+        <v>-0.025067393667281</v>
       </c>
       <c r="I25" t="n">
-        <v>0.008374958863176574</v>
+        <v>0.04688821132163984</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1539,38 +1539,38 @@
         <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GGS_TSM_LCS_-_Sunday,_June_23</t>
+          <t>FOX_FLY_LCS_-_Sunday,_August_4</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-7.4</v>
+        <v>-24.3</v>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>-1809</v>
+        <v>1444</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1737773653486501</v>
+        <v>0.1151298523428588</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.003056297073520786</v>
+        <v>0.01026459688080161</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.002430845382961844</v>
+        <v>0.1162525799339603</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1579,44 +1579,44 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EG_GG_LCS_2020_Spring_-_Saturday,_February_1</t>
+          <t>CLG_100_LCS_-_Saturday,_June_1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.9</v>
+        <v>23.3</v>
       </c>
       <c r="C27" t="n">
-        <v>-10</v>
+        <v>43</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>172</v>
+        <v>3499</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02822902962143964</v>
+        <v>0.00110905826398866</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.004236481392667107</v>
+        <v>0.008731299420079289</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.01822818345402849</v>
+        <v>0.008374958863176574</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1628,41 +1628,41 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CLG_TSM_LCS_-_Sunday,_July_7</t>
+          <t>GGS_TSM_LCS_-_Sunday,_June_23</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-16.1</v>
+        <v>-7.4</v>
       </c>
       <c r="C28" t="n">
-        <v>-18</v>
+        <v>37</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>-12</v>
       </c>
       <c r="F28" t="n">
-        <v>2247</v>
+        <v>-1809</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05225249964538503</v>
+        <v>-0.1737773653486501</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.01693376204712571</v>
+        <v>-0.003056297073520786</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1378440782095455</v>
+        <v>-0.002430845382961844</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1671,44 +1671,44 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TL_CG_LCS_-_Sunday,_June_23</t>
+          <t>EG_GG_LCS_2020_Spring_-_Saturday,_February_1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.6</v>
+        <v>-0.9</v>
       </c>
       <c r="C29" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04671472046225056</v>
+        <v>0.02822902962143964</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01657667425661369</v>
+        <v>-0.004236481392667107</v>
       </c>
       <c r="I29" t="n">
-        <v>0.001589589696378457</v>
+        <v>-0.01822818345402849</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1723,38 +1723,38 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C9_FLY_LCS_-_Saturday,_July_27</t>
+          <t>CLG_TSM_LCS_-_Sunday,_July_7</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.800000000000001</v>
+        <v>-16.1</v>
       </c>
       <c r="C30" t="n">
-        <v>-68</v>
+        <v>-18</v>
       </c>
       <c r="D30" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>-1235</v>
+        <v>2247</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0507630259722196</v>
+        <v>0.05225249964538503</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.03959549502503334</v>
+        <v>-0.01693376204712571</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01107401801272373</v>
+        <v>0.1378440782095455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1766,41 +1766,41 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CG_CLG_LCS_-_Saturday,_July_6</t>
+          <t>TL_IMT_LCS_2020_Spring_-_Saturday,_February_15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-7.9</v>
+        <v>-4.9</v>
       </c>
       <c r="C31" t="n">
-        <v>-39</v>
+        <v>-9</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E31" t="n">
         <v>-4</v>
       </c>
       <c r="F31" t="n">
-        <v>676</v>
+        <v>-1942</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.02378021922620294</v>
+        <v>0.02784111506790649</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01025509653128448</v>
+        <v>0.01309607221238684</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0525672828520895</v>
+        <v>-0.05839677922297148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>2</v>
@@ -1821,32 +1821,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TL_C9_LCS_-_Saturday,_July_6</t>
+          <t>TL_CG_LCS_-_Sunday,_June_23</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.3</v>
+        <v>-5.6</v>
       </c>
       <c r="C32" t="n">
-        <v>35</v>
+        <v>-8</v>
       </c>
       <c r="D32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E32" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F32" t="n">
-        <v>-282</v>
+        <v>87</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.03931696296180032</v>
+        <v>-0.04671472046225056</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04450981352788622</v>
+        <v>0.01657667425661369</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.06635715318589691</v>
+        <v>0.001589589696378457</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1858,41 +1858,41 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TSM_C9_LCS_-_Sunday,_June_16</t>
+          <t>C9_FLY_LCS_-_Saturday,_July_27</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-16.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>-24</v>
+        <v>-68</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="F33" t="n">
-        <v>1376</v>
+        <v>-1235</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1117219841611249</v>
+        <v>-0.0507630259722196</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02803686483225142</v>
+        <v>-0.03959549502503334</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1671516461099915</v>
+        <v>-0.01107401801272373</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1901,44 +1901,44 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>-1</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C9_GGS_LCS_-_Saturday,_August_3</t>
+          <t>CG_CLG_LCS_-_Saturday,_July_6</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16</v>
+        <v>-7.9</v>
       </c>
       <c r="C34" t="n">
-        <v>-52</v>
+        <v>-39</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="F34" t="n">
-        <v>-1697</v>
+        <v>676</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.04671689465891338</v>
+        <v>-0.02378021922620294</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001158498309841743</v>
+        <v>0.01025509653128448</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02528378413838278</v>
+        <v>0.0525672828520895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1947,44 +1947,44 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CG_FLY_LCS_-_Sunday,_July_28</t>
+          <t>TL_C9_LCS_-_Saturday,_July_6</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11.3</v>
+        <v>1.3</v>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="F35" t="n">
-        <v>1453</v>
+        <v>-282</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09807486739678245</v>
+        <v>-0.03931696296180032</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.003674972671326771</v>
+        <v>0.04450981352788622</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0004796352096849144</v>
+        <v>-0.06635715318589691</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1996,41 +1996,41 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CLG_FOX_LCS_-_Saturday,_June_15</t>
+          <t>TSM_C9_LCS_-_Sunday,_June_16</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.2</v>
+        <v>-16.6</v>
       </c>
       <c r="C36" t="n">
-        <v>-41</v>
+        <v>-24</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>239</v>
+        <v>1376</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06389583762036749</v>
+        <v>0.1117219841611249</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.007664843861227025</v>
+        <v>-0.02803686483225142</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01061051981357145</v>
+        <v>0.1671516461099915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
@@ -2051,32 +2051,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FLY_OPT_LCS_-_Sunday,_June_9</t>
+          <t>C9_GGS_LCS_-_Saturday,_August_3</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-17.1</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>-4</v>
+        <v>-52</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>491</v>
+        <v>-1697</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05542100698835767</v>
+        <v>-0.04671689465891338</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01219638478434529</v>
+        <v>0.001158498309841743</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.004941494317743933</v>
+        <v>0.02528378413838278</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2085,44 +2085,44 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPT_FLY_LCS_-_Sunday,_July_7</t>
+          <t>CG_FLY_LCS_-_Sunday,_July_28</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.5</v>
+        <v>11.3</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>709</v>
+        <v>1453</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03334931304463645</v>
+        <v>0.09807486739678245</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01310372918423026</v>
+        <v>-0.003674972671326771</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.00554797609163532</v>
+        <v>-0.0004796352096849144</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N38" t="n">
         <v>1</v>
@@ -2143,32 +2143,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OPT_100_LCS_-_Sunday,_August_4</t>
+          <t>CLG_FOX_LCS_-_Saturday,_June_15</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.9</v>
+        <v>10.2</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.09731473950292474</v>
+        <v>0.06389583762036749</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.003175041684489274</v>
+        <v>-0.007664843861227025</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0135726112364252</v>
+        <v>-0.01061051981357145</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2189,32 +2189,32 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OPT_CLG_LCS_-_Saturday,_August_3</t>
+          <t>FLY_OPT_LCS_-_Sunday,_June_9</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.4</v>
+        <v>-17.1</v>
       </c>
       <c r="C40" t="n">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F40" t="n">
-        <v>-1477</v>
+        <v>491</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1464589983949894</v>
+        <v>0.05542100698835767</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.04788805780274953</v>
+        <v>-0.01219638478434529</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.008143556296930754</v>
+        <v>-0.004941494317743933</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>2</v>
@@ -2235,32 +2235,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GGS_CLG_LCS_-_Sunday,_June_16</t>
+          <t>OPT_FLY_LCS_-_Sunday,_July_7</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.8</v>
+        <v>-0.5</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>-238</v>
+        <v>709</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04630767850262113</v>
+        <v>0.03334931304463645</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.00678689664979007</v>
+        <v>0.01310372918423026</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.01812587149809425</v>
+        <v>-0.00554797609163532</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2272,41 +2272,41 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TL_FOX_LCS_-_Saturday,_August_3</t>
+          <t>OPT_100_LCS_-_Sunday,_August_4</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.4</v>
+        <v>22.9</v>
       </c>
       <c r="C42" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>4948</v>
+        <v>141</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02399740059860112</v>
+        <v>-0.09731473950292474</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04404253651373007</v>
+        <v>-0.003175041684489274</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1482978069319167</v>
+        <v>0.0135726112364252</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -2327,32 +2327,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TL_CG_LCS_-_Saturday,_July_20</t>
+          <t>OPT_CLG_LCS_-_Saturday,_August_3</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.7</v>
+        <v>8.4</v>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>-14</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="F43" t="n">
-        <v>2559</v>
+        <v>-1477</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05369263894798504</v>
+        <v>-0.1464589983949894</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04975581519111227</v>
+        <v>-0.04788805780274953</v>
       </c>
       <c r="I43" t="n">
-        <v>0.002981418699438909</v>
+        <v>-0.008143556296930754</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2361,44 +2361,44 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FOX_OPT_LCS_-_Sunday,_June_23</t>
+          <t>GGS_CLG_LCS_-_Sunday,_June_16</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13.1</v>
+        <v>14.8</v>
       </c>
       <c r="C44" t="n">
-        <v>-39</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>-3020</v>
+        <v>-238</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1288488575015178</v>
+        <v>0.04630767850262113</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03385254167948021</v>
+        <v>-0.00678689664979007</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04487592831301457</v>
+        <v>-0.01812587149809425</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2413,38 +2413,38 @@
         <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TSM_DIG_LCS_2020_Spring_-_Saturday,_February_8</t>
+          <t>TL_FOX_LCS_-_Saturday,_August_3</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-5.4</v>
+        <v>5.4</v>
       </c>
       <c r="C45" t="n">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-587</v>
+        <v>4948</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03339846805789753</v>
+        <v>0.02399740059860112</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.005556262648504715</v>
+        <v>0.04404253651373007</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.0005047090772563045</v>
+        <v>0.1482978069319167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
         <v>1</v>
@@ -2465,32 +2465,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C9_FOX_LCS_-_Saturday,_June_8</t>
+          <t>TL_CG_LCS_-_Saturday,_July_20</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.7</v>
+        <v>13.7</v>
       </c>
       <c r="C46" t="n">
-        <v>-28</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>621</v>
+        <v>2559</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1063534301291776</v>
+        <v>0.05369263894798504</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.01921632360608234</v>
+        <v>0.04975581519111227</v>
       </c>
       <c r="I46" t="n">
-        <v>0.06251039657382768</v>
+        <v>0.002981418699438909</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
@@ -2511,32 +2511,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IMT_FLY_LCS_2020_Spring_-_Saturday,_January_25</t>
+          <t>FOX_OPT_LCS_-_Sunday,_June_23</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8.699999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="C47" t="n">
-        <v>-9</v>
+        <v>-39</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F47" t="n">
-        <v>1045</v>
+        <v>-3020</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.1143331334813568</v>
+        <v>-0.1288488575015178</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0103977457839356</v>
+        <v>0.03385254167948021</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01523715972199241</v>
+        <v>0.04487592831301457</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2545,44 +2545,44 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CG_FOX_LCS_-_Sunday,_July_21</t>
+          <t>TSM_DIG_LCS_2020_Spring_-_Saturday,_February_8</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>-5.4</v>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>3009</v>
+        <v>-587</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1232316068651398</v>
+        <v>0.03339846805789753</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.01528905135609113</v>
+        <v>-0.005556262648504715</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02775013142833133</v>
+        <v>-0.0005047090772563045</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
@@ -2603,32 +2603,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FLY_CG_LCS_-_Sunday,_June_16</t>
+          <t>CLG_TL_LCS_2020_Spring_-_Sunday,_February_16</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="C49" t="n">
-        <v>-57</v>
+        <v>-28</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F49" t="n">
-        <v>241</v>
+        <v>-2454</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06161969558540575</v>
+        <v>-0.02881481563917548</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02548023011729494</v>
+        <v>-0.000697688914942457</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01098235751201959</v>
+        <v>-0.07084987783866944</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2637,44 +2637,44 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M49" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FOX_OPT_LCS_-_Saturday,_July_20</t>
+          <t>C9_FOX_LCS_-_Saturday,_June_8</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-14.4</v>
+        <v>1.7</v>
       </c>
       <c r="C50" t="n">
-        <v>-81</v>
+        <v>-28</v>
       </c>
       <c r="D50" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
-        <v>-6730</v>
+        <v>621</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.08690998921709192</v>
+        <v>0.1063534301291776</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.003540500156338111</v>
+        <v>-0.01921632360608234</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0689659157899003</v>
+        <v>0.06251039657382768</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2683,44 +2683,44 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TSM_100_LCS_-_Saturday,_July_6</t>
+          <t>IMT_FLY_LCS_2020_Spring_-_Saturday,_January_25</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>10.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>971</v>
+        <v>1045</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01285428514478337</v>
+        <v>-0.1143331334813568</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.0103977457839356</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.01523715972199241</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2729,44 +2729,44 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>-1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CLG_FLY_LCS_-_Saturday,_June_22</t>
+          <t>CG_FOX_LCS_-_Sunday,_July_21</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>132</v>
+        <v>3009</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01345724363640255</v>
+        <v>0.1232316068651398</v>
       </c>
       <c r="H52" t="n">
-        <v>0.009522541016909761</v>
+        <v>-0.01528905135609113</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.01312192391935213</v>
+        <v>0.02775013142833133</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
         <v>1</v>
@@ -2787,32 +2787,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>100_TL_LCS_2020_Spring_-_Saturday,_February_8</t>
+          <t>FLY_CG_LCS_-_Sunday,_June_16</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>-57</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>2644</v>
+        <v>241</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02689721518302518</v>
+        <v>0.06161969558540575</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.01357231206970301</v>
+        <v>0.02548023011729494</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.004171587274507504</v>
+        <v>0.01098235751201959</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -2833,32 +2833,32 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CLG_C9_LCS_-_Sunday,_July_21</t>
+          <t>FOX_OPT_LCS_-_Saturday,_July_20</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>19.2</v>
+        <v>-14.4</v>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>-81</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="F54" t="n">
-        <v>4754</v>
+        <v>-6730</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0445991346758412</v>
+        <v>-0.08690998921709192</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01057879465378439</v>
+        <v>-0.003540500156338111</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1340174565772393</v>
+        <v>-0.0689659157899003</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2867,44 +2867,44 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FLY_100_LCS_-_Sunday,_June_23</t>
+          <t>TSM_100_LCS_-_Saturday,_July_6</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-15.7</v>
+        <v>10.4</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>-96</v>
+        <v>971</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03046296944628724</v>
+        <v>0.01285428514478337</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.000170921867326923</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03007851497922687</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2916,41 +2916,41 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>100_GGS_LCS_-_Saturday,_June_15</t>
+          <t>CLG_FLY_LCS_-_Saturday,_June_22</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.3</v>
+        <v>2.8</v>
       </c>
       <c r="C56" t="n">
-        <v>-68</v>
+        <v>-13</v>
       </c>
       <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
         <v>-3</v>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
       <c r="F56" t="n">
-        <v>-3393</v>
+        <v>132</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.006082858164174643</v>
+        <v>0.01345724363640255</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04016109007700056</v>
+        <v>0.009522541016909761</v>
       </c>
       <c r="I56" t="n">
-        <v>0.07558805670412044</v>
+        <v>-0.01312192391935213</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2962,41 +2962,41 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FLY_CLG_LCS_-_Saturday,_July_20</t>
+          <t>100_TL_LCS_2020_Spring_-_Saturday,_February_8</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>104</v>
+        <v>2644</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.001092468565544069</v>
+        <v>0.02689721518302518</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.03036086131822356</v>
+        <v>-0.01357231206970301</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.04103975400451015</v>
+        <v>-0.004171587274507504</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3005,44 +3005,44 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>100_TSM_LCS_-_Sunday,_July_28</t>
+          <t>CLG_C9_LCS_-_Sunday,_July_21</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="C58" t="n">
-        <v>-5</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>573</v>
+        <v>4754</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.002914890831677452</v>
+        <v>0.0445991346758412</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.002405848772629102</v>
+        <v>0.01057879465378439</v>
       </c>
       <c r="I58" t="n">
-        <v>0.07712161123633188</v>
+        <v>0.1340174565772393</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3051,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
         <v>1</v>
@@ -3063,32 +3063,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CG_GGS_LCS_-_Sunday,_August_4</t>
+          <t>FLY_100_LCS_-_Sunday,_June_23</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-2.7</v>
+        <v>-15.7</v>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2595</v>
+        <v>-96</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06358892961672308</v>
+        <v>0.03046296944628724</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.0374246525704086</v>
+        <v>-0.000170921867326923</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.05582330775406769</v>
+        <v>0.03007851497922687</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3097,44 +3097,44 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TSM_GGS_LCS_-_Saturday,_July_20</t>
+          <t>100_GGS_LCS_-_Saturday,_June_15</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C60" t="n">
-        <v>-28</v>
+        <v>-68</v>
       </c>
       <c r="D60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E60" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>-1546</v>
+        <v>-3393</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007166303465555524</v>
+        <v>-0.006082858164174643</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.0007449399062440659</v>
+        <v>0.04016109007700056</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02094040749600012</v>
+        <v>0.07558805670412044</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3146,41 +3146,41 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C9_FLY_LCS_-_Saturday,_June_1</t>
+          <t>FLY_CLG_LCS_-_Saturday,_July_20</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12.6</v>
+        <v>-12.5</v>
       </c>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>681</v>
+        <v>104</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0652279393818207</v>
+        <v>-0.001092468565544069</v>
       </c>
       <c r="H61" t="n">
-        <v>0.004713964306804166</v>
+        <v>-0.03036086131822356</v>
       </c>
       <c r="I61" t="n">
-        <v>0.007545926609348774</v>
+        <v>-0.04103975400451015</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3189,44 +3189,44 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>100_C9_LCS_2020_Spring_-_Sunday,_February_2</t>
+          <t>EG_IMT_LCS_2020_Spring_-_Sunday,_February_16</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1</v>
+        <v>-3.4</v>
       </c>
       <c r="C62" t="n">
-        <v>-50</v>
+        <v>21</v>
       </c>
       <c r="D62" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>-1902</v>
+        <v>2735</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.06187729433168476</v>
+        <v>0.08109441904369807</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.03498434594414505</v>
+        <v>0.01122913240789238</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.01201574622329532</v>
+        <v>0.08449519938850519</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3235,44 +3235,44 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GGS_FLY_LCS_-_Saturday,_July_13</t>
+          <t>100_TSM_LCS_-_Sunday,_July_28</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3.4</v>
+        <v>19.6</v>
       </c>
       <c r="C63" t="n">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="D63" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>-1751</v>
+        <v>573</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05567076746868072</v>
+        <v>-0.002914890831677452</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.087527395300282</v>
+        <v>-0.002405848772629102</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.0714263514004293</v>
+        <v>0.07712161123633188</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3284,41 +3284,41 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C9_CLG_LCS_-_Sunday,_August_4</t>
+          <t>CG_GGS_LCS_-_Sunday,_August_4</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-19.4</v>
+        <v>-2.7</v>
       </c>
       <c r="C64" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>2936</v>
+        <v>2595</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01464803134174364</v>
+        <v>0.06358892961672308</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02428118304599869</v>
+        <v>-0.0374246525704086</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.01110531619234878</v>
+        <v>-0.05582330775406769</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3327,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>1</v>
@@ -3339,32 +3339,32 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GG_TSM_LCS_2020_Spring_-_Sunday,_February_9</t>
+          <t>TSM_GGS_LCS_-_Saturday,_July_20</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-13.5</v>
+        <v>10.2</v>
       </c>
       <c r="C65" t="n">
-        <v>-12</v>
+        <v>-28</v>
       </c>
       <c r="D65" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E65" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F65" t="n">
-        <v>-1676</v>
+        <v>-1546</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02218113027607926</v>
+        <v>0.007166303465555524</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.03464727593894389</v>
+        <v>-0.0007449399062440659</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.04393257076355295</v>
+        <v>0.02094040749600012</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3376,41 +3376,41 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>100_TL_LCS_-_Sunday,_July_7</t>
+          <t>C9_FLY_LCS_-_Saturday,_June_1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.9</v>
+        <v>12.6</v>
       </c>
       <c r="C66" t="n">
-        <v>-37</v>
+        <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>-1269</v>
+        <v>681</v>
       </c>
       <c r="G66" t="n">
-        <v>0.06343432741082505</v>
+        <v>-0.0652279393818207</v>
       </c>
       <c r="H66" t="n">
-        <v>0.007093452770777733</v>
+        <v>0.004713964306804166</v>
       </c>
       <c r="I66" t="n">
-        <v>0.005435270138191228</v>
+        <v>0.007545926609348774</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3419,44 +3419,44 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>-1</v>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CLG_FOX_LCS_-_Sunday,_July_28</t>
+          <t>100_C9_LCS_2020_Spring_-_Sunday,_February_2</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>17.8</v>
+        <v>0.1</v>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>-50</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F67" t="n">
-        <v>3905</v>
+        <v>-1902</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1444247594283879</v>
+        <v>-0.06187729433168476</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02723879509911616</v>
+        <v>-0.03498434594414505</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0339087876980112</v>
+        <v>-0.01201574622329532</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3465,44 +3465,44 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CLG_GGS_LCS_-_Sunday,_July_14</t>
+          <t>GGS_FLY_LCS_-_Saturday,_July_13</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>41.4</v>
+        <v>3.4</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>-12</v>
       </c>
       <c r="F68" t="n">
-        <v>3206</v>
+        <v>-1751</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0441202556779785</v>
+        <v>0.05567076746868072</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01466454929687337</v>
+        <v>-0.087527395300282</v>
       </c>
       <c r="I68" t="n">
-        <v>0.119378899233342</v>
+        <v>-0.0714263514004293</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
         <v>2</v>
@@ -3523,32 +3523,32 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>OPT_CLG_LCS_-_Saturday,_June_8</t>
+          <t>C9_CLG_LCS_-_Sunday,_August_4</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1.1</v>
+        <v>-19.4</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>672</v>
+        <v>2936</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01291662470996757</v>
+        <v>0.01464803134174364</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.01110819776615268</v>
+        <v>0.02428118304599869</v>
       </c>
       <c r="I69" t="n">
-        <v>0.08378406169665811</v>
+        <v>-0.01110531619234878</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
@@ -3569,32 +3569,32 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CG_GGS_LCS_-_Saturday,_June_8</t>
+          <t>GG_TSM_LCS_2020_Spring_-_Sunday,_February_9</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>29.7</v>
+        <v>-13.5</v>
       </c>
       <c r="C70" t="n">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="F70" t="n">
-        <v>2325</v>
+        <v>-1676</v>
       </c>
       <c r="G70" t="n">
-        <v>0.004755716203263094</v>
+        <v>-0.02218113027607926</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.007396555181347575</v>
+        <v>-0.03464727593894389</v>
       </c>
       <c r="I70" t="n">
-        <v>0.003738236433371289</v>
+        <v>-0.04393257076355295</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3603,44 +3603,44 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C9_TSM_LCS_-_Sunday,_July_14</t>
+          <t>100_TL_LCS_-_Sunday,_July_7</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="C71" t="n">
-        <v>-90</v>
+        <v>-37</v>
       </c>
       <c r="D71" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-5241</v>
+        <v>-1269</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08945667422179765</v>
+        <v>0.06343432741082505</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.02380157219032131</v>
+        <v>0.007093452770777733</v>
       </c>
       <c r="I71" t="n">
-        <v>0.003054309022807955</v>
+        <v>0.005435270138191228</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3649,44 +3649,44 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
         <v>-1</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>100_FOX_LCS_-_Sunday,_July_14</t>
+          <t>CLG_FOX_LCS_-_Sunday,_July_28</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>8.9</v>
+        <v>17.8</v>
       </c>
       <c r="C72" t="n">
-        <v>-24</v>
+        <v>13</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>996</v>
+        <v>3905</v>
       </c>
       <c r="G72" t="n">
-        <v>0.02079070574227099</v>
+        <v>0.1444247594283879</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.02843108429373534</v>
+        <v>0.02723879509911616</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.04383161566042496</v>
+        <v>0.0339087876980112</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3695,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
         <v>1</v>
@@ -3707,32 +3707,32 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CLG_100_LCS_2020_Spring_-_Saturday,_February_1</t>
+          <t>CLG_GGS_LCS_-_Sunday,_July_14</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-26.8</v>
+        <v>41.4</v>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>-690</v>
+        <v>3206</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.03166063385594287</v>
+        <v>-0.0441202556779785</v>
       </c>
       <c r="H73" t="n">
-        <v>0.006003789200073134</v>
+        <v>0.01466454929687337</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.1047818781728166</v>
+        <v>0.119378899233342</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3741,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>2</v>
@@ -3753,14 +3753,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TL_100_LCS_-_Saturday,_June_8</t>
+          <t>OPT_CLG_LCS_-_Saturday,_June_8</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.4</v>
+        <v>-1.1</v>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>2</v>
@@ -3769,16 +3769,16 @@
         <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>1708</v>
+        <v>672</v>
       </c>
       <c r="G74" t="n">
-        <v>0.01368306148308213</v>
+        <v>0.01291662470996757</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0470821002356082</v>
+        <v>-0.01110819776615268</v>
       </c>
       <c r="I74" t="n">
-        <v>0.067561076001662</v>
+        <v>0.08378406169665811</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3799,32 +3799,32 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>OPT_GGS_LCS_-_Sunday,_July_28</t>
+          <t>CG_GGS_LCS_-_Saturday,_June_8</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>29.7</v>
       </c>
       <c r="C75" t="n">
-        <v>-39</v>
+        <v>-5</v>
       </c>
       <c r="D75" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>-976</v>
+        <v>2325</v>
       </c>
       <c r="G75" t="n">
-        <v>0.05861669253485452</v>
+        <v>0.004755716203263094</v>
       </c>
       <c r="H75" t="n">
-        <v>0.01863050890053934</v>
+        <v>-0.007396555181347575</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01275963109017347</v>
+        <v>0.003738236433371289</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3833,90 +3833,90 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EG_TSM_LCS_2020_Spring_-_Sunday,_February_2</t>
+          <t>C9_TSM_LCS_-_Sunday,_July_14</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>-90</v>
       </c>
       <c r="D76" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-5241</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.08945667422179765</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.02380157219032131</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.003054309022807955</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>-3</v>
       </c>
-      <c r="E76" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-634</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-0.07260917487541552</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-0.006493377415553642</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.007601073738872421</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FLY_GGS_LCS_-_Sunday,_June_2</t>
+          <t>100_FOX_LCS_-_Sunday,_July_14</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-7.9</v>
+        <v>8.9</v>
       </c>
       <c r="C77" t="n">
-        <v>-80</v>
+        <v>-24</v>
       </c>
       <c r="D77" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>-4770</v>
+        <v>996</v>
       </c>
       <c r="G77" t="n">
-        <v>0.05383803046658925</v>
+        <v>0.02079070574227099</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.01229723176378728</v>
+        <v>-0.02843108429373534</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1002167618448781</v>
+        <v>-0.04383161566042496</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3925,44 +3925,44 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CG_OPT_LCS_-_Sunday,_July_14</t>
+          <t>CLG_100_LCS_2020_Spring_-_Saturday,_February_1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.6</v>
+        <v>-26.8</v>
       </c>
       <c r="C78" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>1916</v>
+        <v>-690</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04008572517500825</v>
+        <v>-0.03166063385594287</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02894341918839947</v>
+        <v>0.006003789200073134</v>
       </c>
       <c r="I78" t="n">
-        <v>0.07732515487853697</v>
+        <v>-0.1047818781728166</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3971,44 +3971,44 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M78" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>100_C9_LCS_-_Saturday,_June_22</t>
+          <t>TL_100_LCS_-_Saturday,_June_8</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-18.7</v>
+        <v>2.4</v>
       </c>
       <c r="C79" t="n">
-        <v>-77</v>
+        <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>-1084</v>
+        <v>1708</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0267955982884418</v>
+        <v>0.01368306148308213</v>
       </c>
       <c r="H79" t="n">
-        <v>0.04011576006814492</v>
+        <v>0.0470821002356082</v>
       </c>
       <c r="I79" t="n">
-        <v>0.052837709491656</v>
+        <v>0.067561076001662</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>1</v>
@@ -4029,32 +4029,32 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FLY_CLG_LCS_2020_Spring_-_Sunday,_January_26</t>
+          <t>OPT_GGS_LCS_-_Sunday,_July_28</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-19.8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
-        <v>-4</v>
+        <v>-39</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="F80" t="n">
-        <v>3164</v>
+        <v>-976</v>
       </c>
       <c r="G80" t="n">
-        <v>0.08477255248222793</v>
+        <v>0.05861669253485452</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07941304958244549</v>
+        <v>0.01863050890053934</v>
       </c>
       <c r="I80" t="n">
-        <v>0.03366081283709021</v>
+        <v>0.01275963109017347</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -4063,44 +4063,44 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TSM_FLY_LCS_-_Saturday,_August_3</t>
+          <t>EG_TSM_LCS_2020_Spring_-_Sunday,_February_2</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-10.8</v>
+        <v>5.7</v>
       </c>
       <c r="C81" t="n">
-        <v>-22</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="F81" t="n">
-        <v>1628</v>
+        <v>-634</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02609121974998707</v>
+        <v>-0.07260917487541552</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02548451239162378</v>
+        <v>-0.006493377415553642</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01774414609839547</v>
+        <v>0.007601073738872421</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -4109,44 +4109,44 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OPT_C9_LCS_-_Sunday,_August_4</t>
+          <t>FLY_GGS_LCS_-_Sunday,_June_2</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>-7.9</v>
       </c>
       <c r="C82" t="n">
-        <v>-51</v>
+        <v>-80</v>
       </c>
       <c r="D82" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="E82" t="n">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="F82" t="n">
-        <v>-4929</v>
+        <v>-4770</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.05117929693899625</v>
+        <v>0.05383803046658925</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.001816571126127167</v>
+        <v>-0.01229723176378728</v>
       </c>
       <c r="I82" t="n">
-        <v>0.03135162927523888</v>
+        <v>-0.1002167618448781</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N82" t="n">
         <v>2</v>
@@ -4167,32 +4167,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FOX_TL_LCS_-_Sunday,_June_2</t>
+          <t>CG_OPT_LCS_-_Sunday,_July_14</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="C83" t="n">
-        <v>-58</v>
+        <v>22</v>
       </c>
       <c r="D83" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>-3791</v>
+        <v>1916</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.01468012830017618</v>
+        <v>0.04008572517500825</v>
       </c>
       <c r="H83" t="n">
-        <v>0.002412669468850263</v>
+        <v>0.02894341918839947</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.0291044224892372</v>
+        <v>0.07732515487853697</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -4201,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
         <v>1</v>
@@ -4213,14 +4213,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>100_CLG_LCS_-_Sunday,_August_4</t>
+          <t>100_C9_LCS_-_Saturday,_June_22</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>14.5</v>
+        <v>-18.7</v>
       </c>
       <c r="C84" t="n">
-        <v>-52</v>
+        <v>-77</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -4229,16 +4229,16 @@
         <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>705</v>
+        <v>-1084</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.03253608420362286</v>
+        <v>0.0267955982884418</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.02319845876071583</v>
+        <v>0.04011576006814492</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0147275496187721</v>
+        <v>0.052837709491656</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -4247,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N84" t="n">
         <v>1</v>
@@ -4259,32 +4259,32 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FOX_C9_LCS_-_Saturday,_July_13</t>
+          <t>FLY_CLG_LCS_2020_Spring_-_Sunday,_January_26</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-9.699999999999999</v>
+        <v>-19.8</v>
       </c>
       <c r="C85" t="n">
-        <v>29</v>
+        <v>-4</v>
       </c>
       <c r="D85" t="n">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>-1817</v>
+        <v>3164</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.05406661238097388</v>
+        <v>0.08477255248222793</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.020835139478075</v>
+        <v>0.07941304958244549</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.01657158753382143</v>
+        <v>0.03366081283709021</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
@@ -4305,32 +4305,32 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FOX_100_LCS_-_Sunday,_June_16</t>
+          <t>TSM_FLY_LCS_-_Saturday,_August_3</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4</v>
+        <v>-10.8</v>
       </c>
       <c r="C86" t="n">
-        <v>71</v>
+        <v>-22</v>
       </c>
       <c r="D86" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>269</v>
+        <v>1628</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02996109150013743</v>
+        <v>-0.02609121974998707</v>
       </c>
       <c r="H86" t="n">
-        <v>0.01843575063704634</v>
+        <v>0.02548451239162378</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0138962374345114</v>
+        <v>0.01774414609839547</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -4339,44 +4339,44 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M86" t="n">
         <v>-1</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EG_100_LCS_2020_Spring_-_Monday,_January_27</t>
+          <t>OPT_C9_LCS_-_Sunday,_August_4</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-6.1</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>-5</v>
+        <v>-51</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="F87" t="n">
-        <v>-76</v>
+        <v>-4929</v>
       </c>
       <c r="G87" t="n">
-        <v>0.09191202254612779</v>
+        <v>-0.05117929693899625</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.004696453848161392</v>
+        <v>-0.001816571126127167</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.01140492801227211</v>
+        <v>0.03135162927523888</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -4385,44 +4385,44 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CG_100_LCS_-_Saturday,_August_3</t>
+          <t>FOX_TL_LCS_-_Sunday,_June_2</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11.8</v>
+        <v>3.2</v>
       </c>
       <c r="C88" t="n">
-        <v>13</v>
+        <v>-58</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="F88" t="n">
-        <v>2366</v>
+        <v>-3791</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.06874103225738615</v>
+        <v>-0.01468012830017618</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.01692839008860052</v>
+        <v>0.002412669468850263</v>
       </c>
       <c r="I88" t="n">
-        <v>0.09294940179855543</v>
+        <v>-0.0291044224892372</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
         <v>-1</v>
@@ -4443,32 +4443,32 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TL_FLY_LCS_2020_Spring_-_Sunday,_February_2</t>
+          <t>100_CLG_LCS_-_Sunday,_August_4</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-10.3</v>
+        <v>14.5</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>-52</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>2826</v>
+        <v>705</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06878838567409107</v>
+        <v>-0.03253608420362286</v>
       </c>
       <c r="H89" t="n">
-        <v>0.01976951246708631</v>
+        <v>-0.02319845876071583</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0002256055063710183</v>
+        <v>0.0147275496187721</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>1</v>
@@ -4489,32 +4489,32 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IMT_100_LCS_2020_Spring_-_Sunday,_February_9</t>
+          <t>FOX_C9_LCS_-_Saturday,_July_13</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-3.2</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="F90" t="n">
-        <v>3153</v>
+        <v>-1817</v>
       </c>
       <c r="G90" t="n">
-        <v>0.047204054565818</v>
+        <v>-0.05406661238097388</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.007107464796716811</v>
+        <v>-0.020835139478075</v>
       </c>
       <c r="I90" t="n">
-        <v>0.00641163892222224</v>
+        <v>-0.01657158753382143</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N90" t="n">
         <v>1</v>
@@ -4535,32 +4535,32 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TSM_CG_LCS_-_Saturday,_July_13</t>
+          <t>FOX_100_LCS_-_Sunday,_June_16</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-19.5</v>
+        <v>0.4</v>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="F91" t="n">
-        <v>2402</v>
+        <v>269</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06859451021927704</v>
+        <v>0.02996109150013743</v>
       </c>
       <c r="H91" t="n">
-        <v>0.00751756101523969</v>
+        <v>0.01843575063704634</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.003239167531395359</v>
+        <v>0.0138962374345114</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4569,44 +4569,44 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FLY_FOX_LCS_-_Saturday,_July_6</t>
+          <t>EG_100_LCS_2020_Spring_-_Monday,_January_27</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>9.699999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="C92" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1584</v>
+        <v>-76</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0008073648460732441</v>
+        <v>0.09191202254612779</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0118776339336128</v>
+        <v>-0.004696453848161392</v>
       </c>
       <c r="I92" t="n">
-        <v>0.02050396291609291</v>
+        <v>-0.01140492801227211</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N92" t="n">
         <v>1</v>
@@ -4627,32 +4627,32 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GGS_TL_LCS_-_Sunday,_July_21</t>
+          <t>CG_100_LCS_-_Saturday,_August_3</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-9.699999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="C93" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D93" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>-1709</v>
+        <v>2366</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03063508150174787</v>
+        <v>-0.06874103225738615</v>
       </c>
       <c r="H93" t="n">
-        <v>0.01733813631188491</v>
+        <v>-0.01692839008860052</v>
       </c>
       <c r="I93" t="n">
-        <v>0.04624739569857361</v>
+        <v>0.09294940179855543</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -4661,44 +4661,44 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>-1</v>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>OPT_TSM_LCS_-_Sunday,_July_21</t>
+          <t>TL_FLY_LCS_2020_Spring_-_Sunday,_February_2</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>15.6</v>
+        <v>-10.3</v>
       </c>
       <c r="C94" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>2250</v>
+        <v>2826</v>
       </c>
       <c r="G94" t="n">
-        <v>0.09688668686602209</v>
+        <v>0.06878838567409107</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02664735331986794</v>
+        <v>0.01976951246708631</v>
       </c>
       <c r="I94" t="n">
-        <v>0.03412638496400186</v>
+        <v>0.0002256055063710183</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4707,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
@@ -4719,32 +4719,32 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DIG_TL_LCS_2020_Spring_-_Saturday,_February_1</t>
+          <t>IMT_100_LCS_2020_Spring_-_Sunday,_February_9</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="C95" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>5047</v>
+        <v>3153</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05251576849178247</v>
+        <v>0.047204054565818</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.01936981694233239</v>
+        <v>-0.007107464796716811</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.01252436596592837</v>
+        <v>0.00641163892222224</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>1</v>
@@ -4765,32 +4765,32 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C9_OPT_LCS_-_Saturday,_June_15</t>
+          <t>TSM_CG_LCS_-_Saturday,_July_13</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-6.3</v>
+        <v>-19.5</v>
       </c>
       <c r="C96" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
-        <v>-376</v>
+        <v>2402</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03654045181104404</v>
+        <v>0.06859451021927704</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.06016201275949259</v>
+        <v>0.00751756101523969</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.05877452725687271</v>
+        <v>-0.003239167531395359</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
         <v>1</v>
@@ -4811,32 +4811,32 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TSM_FOX_LCS_-_Saturday,_July_27</t>
+          <t>DIG_GG_LCS_2020_Spring_-_Sunday,_February_16</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-24.1</v>
+        <v>2.2</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="D97" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E97" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F97" t="n">
-        <v>-2536</v>
+        <v>-3169</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1037458269533121</v>
+        <v>-0.1486837141323452</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.01537048550917083</v>
+        <v>-0.01774788929559727</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.005205875783859032</v>
+        <v>-0.09439377544925526</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4845,44 +4845,44 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C9_FLY_LCS_2020_Spring_-_Saturday,_February_8</t>
+          <t>FLY_FOX_LCS_-_Saturday,_July_6</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>19.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="D98" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>4306</v>
+        <v>1584</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1615919107975475</v>
+        <v>-0.0008073648460732441</v>
       </c>
       <c r="H98" t="n">
-        <v>0.08784191406845882</v>
+        <v>0.0118776339336128</v>
       </c>
       <c r="I98" t="n">
-        <v>0.07512105813400588</v>
+        <v>0.02050396291609291</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4891,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
@@ -4903,32 +4903,32 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TSM_TL_LCS_-_Sunday,_August_4</t>
+          <t>GGS_TL_LCS_-_Sunday,_July_21</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-4.7</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D99" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E99" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F99" t="n">
-        <v>-644</v>
+        <v>-1709</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01228152260513693</v>
+        <v>-0.03063508150174787</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.02427402572716127</v>
+        <v>0.01733813631188491</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.04959610669544157</v>
+        <v>0.04624739569857361</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M99" t="n">
         <v>-1</v>
@@ -4949,32 +4949,32 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GGS_OPT_LCS_-_Saturday,_July_6</t>
+          <t>OPT_TSM_LCS_-_Sunday,_July_21</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-13.8</v>
+        <v>15.6</v>
       </c>
       <c r="C100" t="n">
-        <v>-10</v>
+        <v>46</v>
       </c>
       <c r="D100" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>-3136</v>
+        <v>2250</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1110028771611104</v>
+        <v>0.09688668686602209</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.0796059564806048</v>
+        <v>0.02664735331986794</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.04688010736896464</v>
+        <v>0.03412638496400186</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4983,44 +4983,44 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CLG_TL_LCS_-_Sunday,_June_9</t>
+          <t>DIG_TL_LCS_2020_Spring_-_Saturday,_February_1</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="C101" t="n">
-        <v>-24</v>
+        <v>62</v>
       </c>
       <c r="D101" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F101" t="n">
-        <v>-610</v>
+        <v>5047</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02995404542793861</v>
+        <v>0.05251576849178247</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0003964754939831255</v>
+        <v>-0.01936981694233239</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0781765538271697</v>
+        <v>-0.01252436596592837</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -5029,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
         <v>1</v>
@@ -5041,32 +5041,32 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C9_100_LCS_-_Saturday,_July_20</t>
+          <t>C9_OPT_LCS_-_Saturday,_June_15</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>22.1</v>
+        <v>-6.3</v>
       </c>
       <c r="C102" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F102" t="n">
-        <v>2719</v>
+        <v>-376</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.02360836808713918</v>
+        <v>-0.03654045181104404</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.003962153201259172</v>
+        <v>-0.06016201275949259</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1077430296598971</v>
+        <v>-0.05877452725687271</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -5075,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
         <v>1</v>
@@ -5087,32 +5087,32 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TL_GG_LCS_2020_Spring_-_Monday,_February_10</t>
+          <t>TSM_FOX_LCS_-_Saturday,_July_27</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.7</v>
+        <v>-24.1</v>
       </c>
       <c r="C103" t="n">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E103" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F103" t="n">
-        <v>-2177</v>
+        <v>-2536</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.05410985646080907</v>
+        <v>-0.1037458269533121</v>
       </c>
       <c r="H103" t="n">
-        <v>0.007735643608700271</v>
+        <v>-0.01537048550917083</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.0260286662744339</v>
+        <v>-0.005205875783859032</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -5121,44 +5121,44 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TSM_FLY_LCS_-_Saturday,_June_8</t>
+          <t>C9_FLY_LCS_2020_Spring_-_Saturday,_February_8</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-39.8</v>
+        <v>19.8</v>
       </c>
       <c r="C104" t="n">
-        <v>-66</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E104" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F104" t="n">
-        <v>-1348</v>
+        <v>4306</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.01040362840806441</v>
+        <v>0.1615919107975475</v>
       </c>
       <c r="H104" t="n">
-        <v>0.01474512007263952</v>
+        <v>0.08784191406845882</v>
       </c>
       <c r="I104" t="n">
-        <v>0.009945688008020759</v>
+        <v>0.07512105813400588</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -5167,44 +5167,44 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CG_C9_LCS_-_Sunday,_June_2</t>
+          <t>TSM_TL_LCS_-_Sunday,_August_4</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-4</v>
+        <v>-4.7</v>
       </c>
       <c r="C105" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E105" t="n">
         <v>-5</v>
       </c>
-      <c r="E105" t="n">
-        <v>-12</v>
-      </c>
       <c r="F105" t="n">
-        <v>-114</v>
+        <v>-644</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01562411706269912</v>
+        <v>0.01228152260513693</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.0006753771517057083</v>
+        <v>-0.02427402572716127</v>
       </c>
       <c r="I105" t="n">
-        <v>0.05390047429588804</v>
+        <v>-0.04959610669544157</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N105" t="n">
         <v>2</v>
@@ -5225,32 +5225,32 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GGS_100_LCS_-_Saturday,_July_27</t>
+          <t>GGS_OPT_LCS_-_Saturday,_July_6</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>10.6</v>
+        <v>-13.8</v>
       </c>
       <c r="C106" t="n">
-        <v>55</v>
+        <v>-10</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="F106" t="n">
-        <v>104</v>
+        <v>-3136</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.05148050584505859</v>
+        <v>-0.1110028771611104</v>
       </c>
       <c r="H106" t="n">
-        <v>0.04268266949023611</v>
+        <v>-0.0796059564806048</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.03535599856394833</v>
+        <v>-0.04688010736896464</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -5259,44 +5259,44 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FOX_TSM_LCS_-_Sunday,_June_9</t>
+          <t>CLG_TL_LCS_-_Sunday,_June_9</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-7.4</v>
+        <v>17</v>
       </c>
       <c r="C107" t="n">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="D107" t="n">
         <v>-1</v>
       </c>
       <c r="E107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>-675</v>
+        <v>-610</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03239967954652739</v>
+        <v>0.02995404542793861</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.003662416691025891</v>
+        <v>0.0003964754939831255</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.02132767332512531</v>
+        <v>0.0781765538271697</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -5308,41 +5308,41 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CLG_DIG_LCS_2020_Spring_-_Saturday,_January_25</t>
+          <t>100_DIG_LCS_2020_Spring_-_Saturday,_February_15</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-15</v>
+        <v>-27.2</v>
       </c>
       <c r="C108" t="n">
-        <v>-37</v>
+        <v>-49</v>
       </c>
       <c r="D108" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>-1591</v>
+        <v>-1339</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06013392015460822</v>
+        <v>0.05898896168559031</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.05188026119522034</v>
+        <v>-0.04255583617737174</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.01672360226246911</v>
+        <v>-0.03354827808620464</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -5363,14 +5363,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TL_FLY_LCS_-_Saturday,_June_15</t>
+          <t>C9_100_LCS_-_Saturday,_July_20</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>10</v>
+        <v>22.1</v>
       </c>
       <c r="C109" t="n">
-        <v>-2</v>
+        <v>87</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -5379,16 +5379,16 @@
         <v>-1</v>
       </c>
       <c r="F109" t="n">
-        <v>1435</v>
+        <v>2719</v>
       </c>
       <c r="G109" t="n">
-        <v>0.001616709804953376</v>
+        <v>-0.02360836808713918</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.01856554987736751</v>
+        <v>-0.003962153201259172</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.03628711799110512</v>
+        <v>0.1077430296598971</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -5397,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109" t="n">
         <v>1</v>
@@ -5409,32 +5409,32 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>100_OPT_LCS_-_Sunday,_June_2</t>
+          <t>TL_GG_LCS_2020_Spring_-_Monday,_February_10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-20.8</v>
+        <v>4.7</v>
       </c>
       <c r="C110" t="n">
-        <v>-84</v>
+        <v>-15</v>
       </c>
       <c r="D110" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E110" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F110" t="n">
-        <v>-2702</v>
+        <v>-2177</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.05911724472309055</v>
+        <v>-0.05410985646080907</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.000919721785596142</v>
+        <v>0.007735643608700271</v>
       </c>
       <c r="I110" t="n">
-        <v>5.599377896517432e-05</v>
+        <v>-0.0260286662744339</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -5443,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M110" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N110" t="n">
         <v>2</v>
@@ -5455,32 +5455,32 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>100_FLY_LCS_-_Sunday,_July_21</t>
+          <t>TSM_FLY_LCS_-_Saturday,_June_8</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.4</v>
+        <v>-39.8</v>
       </c>
       <c r="C111" t="n">
-        <v>45</v>
+        <v>-66</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>1589</v>
+        <v>-1348</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04206913610417878</v>
+        <v>-0.01040362840806441</v>
       </c>
       <c r="H111" t="n">
-        <v>0.03930443550281125</v>
+        <v>0.01474512007263952</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0287948408284395</v>
+        <v>0.009945688008020759</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -5489,44 +5489,44 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C9_TL_LCS_2020_Spring_-_Saturday,_January_25</t>
+          <t>CG_C9_LCS_-_Sunday,_June_2</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>21.3</v>
+        <v>-4</v>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E112" t="n">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="F112" t="n">
-        <v>86</v>
+        <v>-114</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0557926871035091</v>
+        <v>0.01562411706269912</v>
       </c>
       <c r="H112" t="n">
-        <v>0.02905428205449676</v>
+        <v>-0.0006753771517057083</v>
       </c>
       <c r="I112" t="n">
-        <v>0.06002959357191334</v>
+        <v>0.05390047429588804</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -5535,44 +5535,44 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>100_GG_LCS_2020_Spring_-_Saturday,_January_25</t>
+          <t>GGS_100_LCS_-_Saturday,_July_27</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>16.6</v>
+        <v>10.6</v>
       </c>
       <c r="C113" t="n">
-        <v>-10</v>
+        <v>55</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>1218</v>
+        <v>104</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.01107474912320572</v>
+        <v>-0.05148050584505859</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.02019952227377131</v>
+        <v>0.04268266949023611</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0328887803534311</v>
+        <v>-0.03535599856394833</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="M113" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
         <v>1</v>
@@ -5593,32 +5593,32 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TL_GGS_LCS_-_Saturday,_June_22</t>
+          <t>FOX_TSM_LCS_-_Sunday,_June_9</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.1</v>
+        <v>-7.4</v>
       </c>
       <c r="C114" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F114" t="n">
-        <v>-1192</v>
+        <v>-675</v>
       </c>
       <c r="G114" t="n">
-        <v>0.072464005262107</v>
+        <v>0.03239967954652739</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.01070755065005861</v>
+        <v>-0.003662416691025891</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.04440346731537248</v>
+        <v>-0.02132767332512531</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -5627,44 +5627,44 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TSM_CLG_LCS_2020_Spring_-_Monday,_February_3</t>
+          <t>CLG_DIG_LCS_2020_Spring_-_Saturday,_January_25</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7.5</v>
+        <v>-15</v>
       </c>
       <c r="C115" t="n">
-        <v>34</v>
+        <v>-37</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F115" t="n">
-        <v>818</v>
+        <v>-1591</v>
       </c>
       <c r="G115" t="n">
-        <v>0.06898374219402931</v>
+        <v>0.06013392015460822</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.04559081340840478</v>
+        <v>-0.05188026119522034</v>
       </c>
       <c r="I115" t="n">
-        <v>0.01561126939517216</v>
+        <v>-0.01672360226246911</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -5679,38 +5679,38 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DIG_C9_LCS_2020_Spring_-_Sunday,_February_9</t>
+          <t>TL_FLY_LCS_-_Saturday,_June_15</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-19.1</v>
+        <v>10</v>
       </c>
       <c r="C116" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="D116" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F116" t="n">
-        <v>-2605</v>
+        <v>1435</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.04406755262353679</v>
+        <v>0.001616709804953376</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.02141523223127059</v>
+        <v>-0.01856554987736751</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.04694458670378726</v>
+        <v>-0.03628711799110512</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5719,44 +5719,44 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TSM_CLG_LCS_-_Sunday,_June_2</t>
+          <t>100_OPT_LCS_-_Sunday,_June_2</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-7.5</v>
+        <v>-20.8</v>
       </c>
       <c r="C117" t="n">
-        <v>-46</v>
+        <v>-84</v>
       </c>
       <c r="D117" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E117" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F117" t="n">
-        <v>-2378</v>
+        <v>-2702</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.03035921518445539</v>
+        <v>-0.05911724472309055</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.1243972152715219</v>
+        <v>-0.000919721785596142</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.111757800990833</v>
+        <v>5.599377896517432e-05</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -5765,58 +5765,380 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
         <v>-1</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>100_FLY_LCS_-_Sunday,_July_21</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C118" t="n">
+        <v>45</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1589</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.04206913610417878</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.03930443550281125</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.0287948408284395</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>C9_TL_LCS_2020_Spring_-_Saturday,_January_25</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>86</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0557926871035091</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.02905428205449676</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.06002959357191334</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>100_GG_LCS_2020_Spring_-_Saturday,_January_25</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1218</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-0.01107474912320572</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.02019952227377131</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.0328887803534311</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TL_GGS_LCS_-_Saturday,_June_22</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-1192</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.072464005262107</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.01070755065005861</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.04440346731537248</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TSM_CLG_LCS_2020_Spring_-_Monday,_February_3</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>34</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>818</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.06898374219402931</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.04559081340840478</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.01561126939517216</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>DIG_C9_LCS_2020_Spring_-_Sunday,_February_9</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-2605</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.04406755262353679</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-0.02141523223127059</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.04694458670378726</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TSM_CLG_LCS_-_Sunday,_June_2</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-46</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-2378</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.03035921518445539</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.1243972152715219</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.111757800990833</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>CG_OPT_LCS_-_Saturday,_June_1</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B125" t="n">
         <v>-7.5</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C125" t="n">
         <v>6</v>
       </c>
-      <c r="D118" t="n">
-        <v>2</v>
-      </c>
-      <c r="E118" t="n">
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" t="n">
         <v>-2</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F125" t="n">
         <v>749</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G125" t="n">
         <v>0.05008116726123918</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H125" t="n">
         <v>0.02601364933972256</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I125" t="n">
         <v>0.03852353873748998</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
         <v>-2</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N125" t="n">
         <v>2</v>
       </c>
     </row>
